--- a/fimo_eval_v0.9.xlsx
+++ b/fimo_eval_v0.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\QAABSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DE2B9D-E2BA-4C2E-B153-17370BB54C4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD92C0C-F8FA-43D2-A6B6-CE53576BE181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18200" windowHeight="7810" xr2:uid="{8FAF0841-0AAD-4EA4-8816-B4D2EB506A26}"/>
+    <workbookView xWindow="10070" yWindow="2850" windowWidth="18200" windowHeight="7810" xr2:uid="{8FAF0841-0AAD-4EA4-8816-B4D2EB506A26}"/>
   </bookViews>
   <sheets>
     <sheet name="main_filtered" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17282" uniqueCount="1961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17322" uniqueCount="2025">
   <si>
     <t>Index</t>
   </si>
@@ -6344,6 +6344,220 @@
   </si>
   <si>
     <t>fimo, colors, varnish</t>
+  </si>
+  <si>
+    <t>[('clay', 'positive'), ('dough', 'positive'), ('delivery', 'positive')]</t>
+  </si>
+  <si>
+    <t>[('clay', 'positive'), ('color', 'positive')]</t>
+  </si>
+  <si>
+    <t>clay, dough, delivery, cost</t>
+  </si>
+  <si>
+    <t>• recommend this product to all fans of polymer clay
+•  dough is soft and malleable
+• cost is really affordable</t>
+  </si>
+  <si>
+    <t>colors, colors, breads</t>
+  </si>
+  <si>
+    <t>• all these colors
+• gives them lots of inspiration
+•  breads are half the size of those usually found, but that is more than enough
+• colors are really very beautiful</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>description, delivery</t>
+  </si>
+  <si>
+    <t>• product respects the description
+• delivery was as always on time</t>
+  </si>
+  <si>
+    <t>variants</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> • cheaper variants are no good</t>
+  </si>
+  <si>
+    <t>colors, format, storage box</t>
+  </si>
+  <si>
+    <t>modeling tools</t>
+  </si>
+  <si>
+    <t>• a good range of colors
+• really liked the format of the storage box</t>
+  </si>
+  <si>
+    <t>set, color, tools</t>
+  </si>
+  <si>
+    <t>kit</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>• it is translucent after baking</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>• easy to use
+• good price
+• fast delivery</t>
+  </si>
+  <si>
+    <t>use, price, delivery</t>
+  </si>
+  <si>
+    <t>packaged, contents</t>
+  </si>
+  <si>
+    <t>colors, oven</t>
+  </si>
+  <si>
+    <t>• beautiful colors
+• easy to harden in the oven</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>• needs a lot of working</t>
+  </si>
+  <si>
+    <t>dough, molds, accessories</t>
+  </si>
+  <si>
+    <t>• restocking of dough, no instructions, no molds, no accessories</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>work, oven</t>
+  </si>
+  <si>
+    <t>• easy to work with
+• Hardens well in the oven</t>
+  </si>
+  <si>
+    <t>• Product received very quickly and conforms to the description</t>
+  </si>
+  <si>
+    <t>modelling clay, lime colour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• modelling clay appears tinged green so my minion model is currently looking a lime colour </t>
+  </si>
+  <si>
+    <t>• person I gave it to is having a great time</t>
+  </si>
+  <si>
+    <t>sets, product</t>
+  </si>
+  <si>
+    <t>•  Very satisfied, I will certainly buy back other sets of this kind. A good product</t>
+  </si>
+  <si>
+    <t>crafting, playing</t>
+  </si>
+  <si>
+    <t>•  Great for crafting and playing</t>
+  </si>
+  <si>
+    <t>accessories, products, packaging</t>
+  </si>
+  <si>
+    <t>• all the accessories were in it too
+• very good packaging</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>• beginner in the field of crafting with Fimo Liquid. The application is very simple and understandable</t>
+  </si>
+  <si>
+    <t>fimo liquid, application</t>
+  </si>
+  <si>
+    <t>sets, description</t>
+  </si>
+  <si>
+    <t>• bought it for my daughter and I did not have the strength</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>paste, purchase</t>
+  </si>
+  <si>
+    <t>• very dry paste
+•  very disappointed with my purchase</t>
+  </si>
+  <si>
+    <t>• Making my jewelry with fimo clay is a pleasure
+• packaged in large package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fimo clay
+</t>
+  </si>
+  <si>
+    <t>packaging, delivery, product quality, price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Suitable packaging
+• excellent product quality
+• product price plus is obviously very convenient
+• fast delivery </t>
+  </si>
+  <si>
+    <t>color, quality</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>colors, knead</t>
+  </si>
+  <si>
+    <t>colours, quantities</t>
+  </si>
+  <si>
+    <t>• good choice colours
+• quantities just right</t>
+  </si>
+  <si>
+    <t>colors,
+work</t>
+  </si>
+  <si>
+    <t>blocks, condition</t>
+  </si>
+  <si>
+    <t>clay, mould</t>
+  </si>
+  <si>
+    <t>•  lot harder than standard modelling clay
+• did not mould as well</t>
+  </si>
+  <si>
+    <t>stuff, glow</t>
+  </si>
+  <si>
+    <t>• bonus to have the glow in the dark one
+• loved this stuff for years</t>
   </si>
 </sst>
 </file>
@@ -6373,7 +6587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6383,6 +6597,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6475,7 +6695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6525,6 +6745,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6690,6 +6913,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -6706,13 +6936,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -6763,17 +6986,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08BC9172-D0D7-4DB5-B906-D915C9A49513}" name="Tabelle1" displayName="Tabelle1" ref="A1:H504" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H504" xr:uid="{7A407487-A19C-4CE7-8150-323E09B0759B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{08BC9172-D0D7-4DB5-B906-D915C9A49513}" name="Tabelle1" displayName="Tabelle1" ref="A1:H504" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10" totalsRowBorderDxfId="8">
+  <autoFilter ref="A1:H504" xr:uid="{7A407487-A19C-4CE7-8150-323E09B0759B}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="amazon"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{34CFA2D6-62D3-4D25-95AC-3352538BC033}" name="Index" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{0FEE117D-6F2D-4D50-94F0-0C746D4FD2C6}" name="Source" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{0E42A352-E39F-40BD-B761-CB40EEC59B72}" name="Review/Comment" dataDxfId="5"/>
     <tableColumn id="7" xr3:uid="{EDC21C63-B16E-416B-93C0-392E6B76F873}" name="positive" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{5F1A8465-27A5-479E-BA28-D2B9C4D697D5}" name="positive short" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{2541AAA5-3281-4119-82E7-27A5C24886BE}" name="negative short" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{AE45C5D6-9964-441A-A33F-F7343E92303C}" name="negative" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{FDD3183B-E8CD-4F4C-B300-345D2BE8F776}" name="Pred" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{5F1A8465-27A5-479E-BA28-D2B9C4D697D5}" name="positive short" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2541AAA5-3281-4119-82E7-27A5C24886BE}" name="negative short" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{AE45C5D6-9964-441A-A33F-F7343E92303C}" name="negative" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3238B8D0-5AD7-4949-B429-CC75048F8940}" name="Pred" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7078,9 +7307,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E25FE59-2D8E-4EC3-BE9B-00C4AA58D69B}">
   <dimension ref="A1:H504"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7092,7 +7321,6 @@
     <col min="5" max="5" width="12.7265625" style="4" customWidth="1"/>
     <col min="6" max="6" width="8.1796875" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.7265625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10423,7 +10651,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="144" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="8">
         <v>1724</v>
       </c>
@@ -10443,7 +10671,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="197" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="197" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="8">
         <v>4424</v>
       </c>
@@ -10463,7 +10691,7 @@
       </c>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="288" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="8">
         <v>516</v>
       </c>
@@ -10474,18 +10702,20 @@
         <v>626</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="E143" s="7"/>
+        <v>1964</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>1963</v>
+      </c>
       <c r="F143" s="7"/>
       <c r="G143" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>1669</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="246" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="8">
         <v>768</v>
       </c>
@@ -10496,15 +10726,15 @@
         <v>631</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>633</v>
-      </c>
-      <c r="E144" s="7"/>
+        <v>1966</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>1965</v>
+      </c>
       <c r="F144" s="7"/>
-      <c r="G144" s="7" t="s">
-        <v>634</v>
-      </c>
+      <c r="G144" s="7"/>
       <c r="H144" s="7" t="s">
-        <v>1635</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10518,18 +10748,20 @@
         <v>637</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>639</v>
-      </c>
-      <c r="E145" s="7"/>
+        <v>1199</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>1967</v>
+      </c>
       <c r="F145" s="7"/>
       <c r="G145" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="126" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="8">
         <v>1191</v>
       </c>
@@ -10548,10 +10780,10 @@
         <v>21</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>1671</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="248" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="8">
         <v>406</v>
       </c>
@@ -10562,18 +10794,20 @@
         <v>644</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="E147" s="7"/>
+        <v>1969</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>1968</v>
+      </c>
       <c r="F147" s="7"/>
       <c r="G147" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>1672</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="194.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="8">
         <v>2449</v>
       </c>
@@ -10587,15 +10821,17 @@
         <v>21</v>
       </c>
       <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
+      <c r="F148" s="7" t="s">
+        <v>1970</v>
+      </c>
       <c r="G148" s="7" t="s">
-        <v>21</v>
+        <v>1971</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>1673</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="8">
         <v>4471</v>
       </c>
@@ -10615,7 +10851,7 @@
       </c>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="242" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="8">
         <v>1273</v>
       </c>
@@ -10626,18 +10862,22 @@
         <v>653</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
+        <v>1974</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>1972</v>
+      </c>
+      <c r="F150" s="7" t="s">
+        <v>1973</v>
+      </c>
       <c r="G150" s="7" t="s">
         <v>655</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="227.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="8">
         <v>1658</v>
       </c>
@@ -10650,13 +10890,15 @@
       <c r="D151" s="7" t="s">
         <v>659</v>
       </c>
-      <c r="E151" s="7"/>
+      <c r="E151" s="7" t="s">
+        <v>1975</v>
+      </c>
       <c r="F151" s="7"/>
       <c r="G151" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>1675</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10672,16 +10914,18 @@
       <c r="D152" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="E152" s="7"/>
+      <c r="E152" s="7" t="s">
+        <v>1976</v>
+      </c>
       <c r="F152" s="7"/>
       <c r="G152" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>1676</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="161.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="8">
         <v>962</v>
       </c>
@@ -10692,18 +10936,20 @@
         <v>664</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>666</v>
-      </c>
-      <c r="E153" s="7"/>
+        <v>1978</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>1977</v>
+      </c>
       <c r="F153" s="7"/>
       <c r="G153" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="239.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="8">
         <v>446</v>
       </c>
@@ -10713,16 +10959,14 @@
       <c r="C154" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D154" s="7" t="s">
-        <v>668</v>
-      </c>
+      <c r="D154" s="7"/>
       <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7" t="s">
-        <v>669</v>
-      </c>
+      <c r="F154" s="7" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G154" s="7"/>
       <c r="H154" s="7" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -10735,19 +10979,17 @@
       <c r="C155" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="D155" s="7" t="s">
-        <v>672</v>
-      </c>
+      <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7"/>
       <c r="G155" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>1678</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="189" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="8">
         <v>2401</v>
       </c>
@@ -10758,18 +11000,20 @@
         <v>677</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>678</v>
-      </c>
-      <c r="E156" s="7"/>
+        <v>1980</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>1981</v>
+      </c>
       <c r="F156" s="7"/>
       <c r="G156" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>1554</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="198" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="8">
         <v>2422</v>
       </c>
@@ -10782,16 +11026,18 @@
       <c r="D157" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="E157" s="7"/>
+      <c r="E157" s="7" t="s">
+        <v>1982</v>
+      </c>
       <c r="F157" s="7"/>
       <c r="G157" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="201" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="8">
         <v>1472</v>
       </c>
@@ -10802,18 +11048,20 @@
         <v>685</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="E158" s="7"/>
+        <v>1984</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>1983</v>
+      </c>
       <c r="F158" s="7"/>
       <c r="G158" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>1679</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="238.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="8">
         <v>958</v>
       </c>
@@ -10826,16 +11074,18 @@
       <c r="D159" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="E159" s="7"/>
+      <c r="E159" s="7" t="s">
+        <v>1781</v>
+      </c>
       <c r="F159" s="7"/>
       <c r="G159" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="231" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="8">
         <v>2465</v>
       </c>
@@ -10848,16 +11098,20 @@
       <c r="D160" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="E160" s="7"/>
-      <c r="F160" s="7"/>
+      <c r="E160" s="7" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>1985</v>
+      </c>
       <c r="G160" s="7" t="s">
-        <v>696</v>
+        <v>1986</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>1566</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="170" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="8">
         <v>500</v>
       </c>
@@ -10871,15 +11125,17 @@
         <v>21</v>
       </c>
       <c r="E161" s="7"/>
-      <c r="F161" s="7"/>
+      <c r="F161" s="7" t="s">
+        <v>1987</v>
+      </c>
       <c r="G161" s="7" t="s">
-        <v>21</v>
+        <v>1988</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="228.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="8">
         <v>1262</v>
       </c>
@@ -10892,16 +11148,18 @@
       <c r="D162" s="7" t="s">
         <v>702</v>
       </c>
-      <c r="E162" s="7"/>
+      <c r="E162" s="7" t="s">
+        <v>1791</v>
+      </c>
       <c r="F162" s="7"/>
       <c r="G162" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>1595</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="246.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="8">
         <v>901</v>
       </c>
@@ -10912,18 +11170,20 @@
         <v>704</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="E163" s="7"/>
+        <v>1991</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>1990</v>
+      </c>
       <c r="F163" s="7"/>
       <c r="G163" s="7" t="s">
         <v>706</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>1681</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="252" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="8">
         <v>2391</v>
       </c>
@@ -10934,18 +11194,20 @@
         <v>709</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E164" s="7"/>
+        <v>1992</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>1850</v>
+      </c>
       <c r="F164" s="7"/>
       <c r="G164" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>1682</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="211.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="8">
         <v>702</v>
       </c>
@@ -10959,15 +11221,17 @@
         <v>21</v>
       </c>
       <c r="E165" s="7"/>
-      <c r="F165" s="7"/>
+      <c r="F165" s="7" t="s">
+        <v>1993</v>
+      </c>
       <c r="G165" s="7" t="s">
-        <v>715</v>
+        <v>1994</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="8">
         <v>4946</v>
       </c>
@@ -10987,7 +11251,7 @@
       </c>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="194.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="8">
         <v>862</v>
       </c>
@@ -10998,18 +11262,20 @@
         <v>720</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>722</v>
-      </c>
-      <c r="E167" s="7"/>
+        <v>1995</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>1989</v>
+      </c>
       <c r="F167" s="7"/>
       <c r="G167" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="202" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="8">
         <v>159</v>
       </c>
@@ -11020,18 +11286,20 @@
         <v>724</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="E168" s="7"/>
+        <v>1997</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>1996</v>
+      </c>
       <c r="F168" s="7"/>
       <c r="G168" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H168" s="7" t="s">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="247" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="8">
         <v>169</v>
       </c>
@@ -11042,18 +11310,20 @@
         <v>728</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E169" s="7"/>
+        <v>1999</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>1998</v>
+      </c>
       <c r="F169" s="7"/>
       <c r="G169" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H169" s="7" t="s">
-        <v>1684</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="8">
         <v>3</v>
       </c>
@@ -11072,10 +11342,10 @@
         <v>21</v>
       </c>
       <c r="H170" s="7" t="s">
-        <v>1685</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="211.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="8">
         <v>1074</v>
       </c>
@@ -11086,18 +11356,18 @@
         <v>736</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>738</v>
-      </c>
-      <c r="E171" s="7"/>
+        <v>2001</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>2000</v>
+      </c>
       <c r="F171" s="7"/>
-      <c r="G171" s="7" t="s">
-        <v>740</v>
-      </c>
+      <c r="G171" s="7"/>
       <c r="H171" s="7" t="s">
-        <v>1686</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="249.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="8">
         <v>1671</v>
       </c>
@@ -11111,15 +11381,17 @@
         <v>21</v>
       </c>
       <c r="E172" s="7"/>
-      <c r="F172" s="7"/>
+      <c r="F172" s="7" t="s">
+        <v>2002</v>
+      </c>
       <c r="G172" s="7" t="s">
         <v>744</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>1576</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="234.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="8">
         <v>2138</v>
       </c>
@@ -11130,18 +11402,20 @@
         <v>746</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="E173" s="7"/>
+        <v>2003</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>2004</v>
+      </c>
       <c r="F173" s="7"/>
       <c r="G173" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>1687</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="249.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="8">
         <v>1760</v>
       </c>
@@ -11155,15 +11429,17 @@
         <v>21</v>
       </c>
       <c r="E174" s="7"/>
-      <c r="F174" s="7"/>
+      <c r="F174" s="7" t="s">
+        <v>2005</v>
+      </c>
       <c r="G174" s="7" t="s">
         <v>752</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="190" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="8">
         <v>959</v>
       </c>
@@ -11177,15 +11453,17 @@
         <v>21</v>
       </c>
       <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
+      <c r="F175" s="7" t="s">
+        <v>1791</v>
+      </c>
       <c r="G175" s="7" t="s">
         <v>756</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>1689</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="200" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="8">
         <v>1640</v>
       </c>
@@ -11199,15 +11477,17 @@
         <v>21</v>
       </c>
       <c r="E176" s="7"/>
-      <c r="F176" s="7"/>
+      <c r="F176" s="7" t="s">
+        <v>2007</v>
+      </c>
       <c r="G176" s="7" t="s">
-        <v>759</v>
+        <v>2006</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="197" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="8">
         <v>1574</v>
       </c>
@@ -11221,15 +11501,17 @@
         <v>21</v>
       </c>
       <c r="E177" s="7"/>
-      <c r="F177" s="7"/>
+      <c r="F177" s="7" t="s">
+        <v>2008</v>
+      </c>
       <c r="G177" s="7" t="s">
-        <v>763</v>
+        <v>2009</v>
       </c>
       <c r="H177" s="7" t="s">
-        <v>1691</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="8">
         <v>6</v>
       </c>
@@ -11240,18 +11522,20 @@
         <v>765</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="E178" s="7"/>
+        <v>2010</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>2011</v>
+      </c>
       <c r="F178" s="7"/>
       <c r="G178" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H178" s="7" t="s">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="233.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="8">
         <v>964</v>
       </c>
@@ -11262,18 +11546,20 @@
         <v>769</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>771</v>
-      </c>
-      <c r="E179" s="7"/>
+        <v>2013</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>2012</v>
+      </c>
       <c r="F179" s="7"/>
       <c r="G179" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H179" s="7" t="s">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="200" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="8">
         <v>1181</v>
       </c>
@@ -11286,16 +11572,20 @@
       <c r="D180" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="E180" s="7"/>
-      <c r="F180" s="7"/>
+      <c r="E180" s="7" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F180" s="7" t="s">
+        <v>2015</v>
+      </c>
       <c r="G180" s="7" t="s">
         <v>775</v>
       </c>
       <c r="H180" s="7" t="s">
-        <v>1693</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="234" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="8">
         <v>1923</v>
       </c>
@@ -11308,16 +11598,18 @@
       <c r="D181" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="E181" s="7"/>
+      <c r="E181" s="7" t="s">
+        <v>2016</v>
+      </c>
       <c r="F181" s="7"/>
       <c r="G181" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H181" s="7" t="s">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="216" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="8">
         <v>1277</v>
       </c>
@@ -11328,18 +11620,20 @@
         <v>782</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>783</v>
-      </c>
-      <c r="E182" s="7"/>
+        <v>2018</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>2017</v>
+      </c>
       <c r="F182" s="7"/>
       <c r="G182" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H182" s="7" t="s">
-        <v>1695</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="216" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="8">
         <v>483</v>
       </c>
@@ -11352,16 +11646,20 @@
       <c r="D183" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
+      <c r="E183" s="7" t="s">
+        <v>2019</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>2020</v>
+      </c>
       <c r="G183" s="7" t="s">
         <v>786</v>
       </c>
       <c r="H183" s="7" t="s">
-        <v>1696</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="8">
         <v>1670</v>
       </c>
@@ -11375,15 +11673,17 @@
         <v>21</v>
       </c>
       <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
+      <c r="F184" s="7" t="s">
+        <v>2021</v>
+      </c>
       <c r="G184" s="7" t="s">
-        <v>788</v>
+        <v>2022</v>
       </c>
       <c r="H184" s="7" t="s">
-        <v>1697</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="154" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="8">
         <v>1964</v>
       </c>
@@ -11394,15 +11694,17 @@
         <v>789</v>
       </c>
       <c r="D185" s="7" t="s">
-        <v>791</v>
-      </c>
-      <c r="E185" s="7"/>
+        <v>2024</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>2023</v>
+      </c>
       <c r="F185" s="7"/>
       <c r="G185" s="7" t="s">
         <v>21</v>
       </c>
       <c r="H185" s="7" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="186" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11424,7 +11726,7 @@
         <v>795</v>
       </c>
       <c r="H186" s="7" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="187" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11446,7 +11748,7 @@
         <v>21</v>
       </c>
       <c r="H187" s="7" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="188" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11468,7 +11770,7 @@
         <v>21</v>
       </c>
       <c r="H188" s="7" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="189" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11490,7 +11792,7 @@
         <v>21</v>
       </c>
       <c r="H189" s="7" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="190" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11512,7 +11814,7 @@
         <v>810</v>
       </c>
       <c r="H190" s="7" t="s">
-        <v>1667</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="191" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11534,7 +11836,7 @@
         <v>815</v>
       </c>
       <c r="H191" s="7" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="192" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11556,7 +11858,7 @@
         <v>820</v>
       </c>
       <c r="H192" s="7" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11578,7 +11880,7 @@
         <v>21</v>
       </c>
       <c r="H193" s="7" t="s">
-        <v>1705</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="194" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11600,7 +11902,7 @@
         <v>21</v>
       </c>
       <c r="H194" s="7" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="195" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11622,7 +11924,7 @@
         <v>21</v>
       </c>
       <c r="H195" s="7" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="196" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11644,7 +11946,7 @@
         <v>21</v>
       </c>
       <c r="H196" s="7" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11666,7 +11968,7 @@
         <v>842</v>
       </c>
       <c r="H197" s="7" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="198" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11688,7 +11990,7 @@
         <v>21</v>
       </c>
       <c r="H198" s="7" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="199" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11710,7 +12012,7 @@
         <v>848</v>
       </c>
       <c r="H199" s="7" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="200" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11732,7 +12034,7 @@
         <v>852</v>
       </c>
       <c r="H200" s="7" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="201" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11754,7 +12056,7 @@
         <v>21</v>
       </c>
       <c r="H201" s="7" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="202" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11776,11 +12078,11 @@
         <v>21</v>
       </c>
       <c r="H202" s="7" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="203" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="8">
+      <c r="A203" s="18">
         <v>344</v>
       </c>
       <c r="B203" s="5" t="s">
@@ -11798,7 +12100,7 @@
         <v>863</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11820,7 +12122,7 @@
         <v>867</v>
       </c>
       <c r="H204" s="7" t="s">
-        <v>1635</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="205" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11842,7 +12144,7 @@
         <v>21</v>
       </c>
       <c r="H205" s="7" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11864,7 +12166,7 @@
         <v>21</v>
       </c>
       <c r="H206" s="7" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11886,7 +12188,7 @@
         <v>21</v>
       </c>
       <c r="H207" s="7" t="s">
-        <v>1718</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="208" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11908,7 +12210,7 @@
         <v>21</v>
       </c>
       <c r="H208" s="7" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="209" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11930,7 +12232,7 @@
         <v>21</v>
       </c>
       <c r="H209" s="7" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11952,7 +12254,7 @@
         <v>21</v>
       </c>
       <c r="H210" s="7" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11974,7 +12276,7 @@
         <v>21</v>
       </c>
       <c r="H211" s="7" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="212" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -11996,7 +12298,7 @@
         <v>897</v>
       </c>
       <c r="H212" s="7" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="213" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12018,7 +12320,7 @@
         <v>901</v>
       </c>
       <c r="H213" s="7" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12040,7 +12342,7 @@
         <v>21</v>
       </c>
       <c r="H214" s="7" t="s">
-        <v>1555</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12062,7 +12364,7 @@
         <v>21</v>
       </c>
       <c r="H215" s="7" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="216" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12084,7 +12386,7 @@
         <v>21</v>
       </c>
       <c r="H216" s="7" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="217" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12106,7 +12408,7 @@
         <v>21</v>
       </c>
       <c r="H217" s="7" t="s">
-        <v>1727</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12128,7 +12430,7 @@
         <v>21</v>
       </c>
       <c r="H218" s="7" t="s">
-        <v>1728</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="219" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12150,7 +12452,7 @@
         <v>21</v>
       </c>
       <c r="H219" s="7" t="s">
-        <v>1729</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12172,7 +12474,7 @@
         <v>21</v>
       </c>
       <c r="H220" s="7" t="s">
-        <v>1730</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12194,7 +12496,7 @@
         <v>930</v>
       </c>
       <c r="H221" s="7" t="s">
-        <v>1731</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12216,7 +12518,7 @@
         <v>21</v>
       </c>
       <c r="H222" s="7" t="s">
-        <v>1732</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12238,7 +12540,7 @@
         <v>21</v>
       </c>
       <c r="H223" s="7" t="s">
-        <v>1733</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12260,7 +12562,7 @@
         <v>941</v>
       </c>
       <c r="H224" s="7" t="s">
-        <v>1734</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="225" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12282,7 +12584,7 @@
         <v>21</v>
       </c>
       <c r="H225" s="7" t="s">
-        <v>1735</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="226" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12304,7 +12606,7 @@
         <v>21</v>
       </c>
       <c r="H226" s="7" t="s">
-        <v>1736</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="227" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12326,7 +12628,7 @@
         <v>951</v>
       </c>
       <c r="H227" s="7" t="s">
-        <v>1737</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="228" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12348,7 +12650,7 @@
         <v>21</v>
       </c>
       <c r="H228" s="7" t="s">
-        <v>1575</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="229" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12370,7 +12672,7 @@
         <v>21</v>
       </c>
       <c r="H229" s="7" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="230" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12392,7 +12694,7 @@
         <v>21</v>
       </c>
       <c r="H230" s="7" t="s">
-        <v>1694</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12436,7 +12738,7 @@
         <v>968</v>
       </c>
       <c r="H232" s="7" t="s">
-        <v>1554</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12458,7 +12760,7 @@
         <v>971</v>
       </c>
       <c r="H233" s="7" t="s">
-        <v>1739</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12480,7 +12782,7 @@
         <v>21</v>
       </c>
       <c r="H234" s="7" t="s">
-        <v>1740</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12502,7 +12804,7 @@
         <v>21</v>
       </c>
       <c r="H235" s="7" t="s">
-        <v>1741</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12524,7 +12826,7 @@
         <v>21</v>
       </c>
       <c r="H236" s="7" t="s">
-        <v>1576</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12546,7 +12848,7 @@
         <v>986</v>
       </c>
       <c r="H237" s="7" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12568,7 +12870,7 @@
         <v>991</v>
       </c>
       <c r="H238" s="7" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12590,7 +12892,7 @@
         <v>21</v>
       </c>
       <c r="H239" s="7" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12612,7 +12914,7 @@
         <v>998</v>
       </c>
       <c r="H240" s="7" t="s">
-        <v>1711</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="241" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12634,7 +12936,7 @@
         <v>1002</v>
       </c>
       <c r="H241" s="7" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="242" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12656,7 +12958,7 @@
         <v>21</v>
       </c>
       <c r="H242" s="7" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12678,7 +12980,7 @@
         <v>21</v>
       </c>
       <c r="H243" s="7" t="s">
-        <v>1745</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="244" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12700,7 +13002,7 @@
         <v>1013</v>
       </c>
       <c r="H244" s="7" t="s">
-        <v>1576</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12722,7 +13024,7 @@
         <v>1017</v>
       </c>
       <c r="H245" s="7" t="s">
-        <v>1746</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12744,7 +13046,7 @@
         <v>21</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>1723</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12766,7 +13068,7 @@
         <v>1026</v>
       </c>
       <c r="H247" s="7" t="s">
-        <v>1747</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="248" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12788,7 +13090,7 @@
         <v>21</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>1575</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="249" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12810,7 +13112,7 @@
         <v>21</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>1748</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="250" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12832,7 +13134,7 @@
         <v>1037</v>
       </c>
       <c r="H250" s="7" t="s">
-        <v>1576</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12854,7 +13156,7 @@
         <v>21</v>
       </c>
       <c r="H251" s="7" t="s">
-        <v>1749</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="252" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12876,7 +13178,7 @@
         <v>1047</v>
       </c>
       <c r="H252" s="7" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="253" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12898,7 +13200,7 @@
         <v>1051</v>
       </c>
       <c r="H253" s="7" t="s">
-        <v>1751</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="254" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12920,7 +13222,7 @@
         <v>21</v>
       </c>
       <c r="H254" s="7" t="s">
-        <v>1604</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="255" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12942,7 +13244,7 @@
         <v>21</v>
       </c>
       <c r="H255" s="7" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12964,7 +13266,7 @@
         <v>21</v>
       </c>
       <c r="H256" s="7" t="s">
-        <v>1575</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -12986,7 +13288,7 @@
         <v>21</v>
       </c>
       <c r="H257" s="7" t="s">
-        <v>1753</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13008,7 +13310,7 @@
         <v>21</v>
       </c>
       <c r="H258" s="7" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13030,7 +13332,7 @@
         <v>21</v>
       </c>
       <c r="H259" s="7" t="s">
-        <v>1755</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13052,7 +13354,7 @@
         <v>21</v>
       </c>
       <c r="H260" s="7" t="s">
-        <v>1756</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="261" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13074,7 +13376,7 @@
         <v>21</v>
       </c>
       <c r="H261" s="7" t="s">
-        <v>1757</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13096,7 +13398,7 @@
         <v>21</v>
       </c>
       <c r="H262" s="7" t="s">
-        <v>1758</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13118,7 +13420,7 @@
         <v>21</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>1759</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13140,7 +13442,7 @@
         <v>1091</v>
       </c>
       <c r="H264" s="7" t="s">
-        <v>1760</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13162,7 +13464,7 @@
         <v>21</v>
       </c>
       <c r="H265" s="7" t="s">
-        <v>1576</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13184,7 +13486,7 @@
         <v>21</v>
       </c>
       <c r="H266" s="7" t="s">
-        <v>1566</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13206,7 +13508,7 @@
         <v>21</v>
       </c>
       <c r="H267" s="7" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13228,7 +13530,7 @@
         <v>21</v>
       </c>
       <c r="H268" s="7" t="s">
-        <v>1762</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13250,7 +13552,7 @@
         <v>21</v>
       </c>
       <c r="H269" s="7" t="s">
-        <v>1763</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13272,7 +13574,7 @@
         <v>21</v>
       </c>
       <c r="H270" s="7" t="s">
-        <v>1764</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13294,7 +13596,7 @@
         <v>1119</v>
       </c>
       <c r="H271" s="7" t="s">
-        <v>1765</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13316,7 +13618,7 @@
         <v>21</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>1766</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13338,7 +13640,7 @@
         <v>21</v>
       </c>
       <c r="H273" s="7" t="s">
-        <v>1767</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="274" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13360,7 +13662,7 @@
         <v>21</v>
       </c>
       <c r="H274" s="7" t="s">
-        <v>1768</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="275" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13382,7 +13684,7 @@
         <v>21</v>
       </c>
       <c r="H275" s="7" t="s">
-        <v>1769</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="276" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13404,7 +13706,7 @@
         <v>1137</v>
       </c>
       <c r="H276" s="7" t="s">
-        <v>1770</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13426,7 +13728,7 @@
         <v>21</v>
       </c>
       <c r="H277" s="7" t="s">
-        <v>1771</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="278" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13448,7 +13750,7 @@
         <v>1145</v>
       </c>
       <c r="H278" s="7" t="s">
-        <v>1772</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13470,7 +13772,7 @@
         <v>1151</v>
       </c>
       <c r="H279" s="7" t="s">
-        <v>1773</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="280" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13492,7 +13794,7 @@
         <v>1157</v>
       </c>
       <c r="H280" s="7" t="s">
-        <v>1774</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="281" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -13513,7 +13815,9 @@
       <c r="G281" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H281" s="7"/>
+      <c r="H281" s="7" t="s">
+        <v>1772</v>
+      </c>
     </row>
     <row r="282" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="8">
@@ -13533,7 +13837,9 @@
       <c r="G282" s="7" t="s">
         <v>1166</v>
       </c>
-      <c r="H282" s="7"/>
+      <c r="H282" s="7" t="s">
+        <v>1773</v>
+      </c>
     </row>
     <row r="283" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="8">
@@ -13553,9 +13859,11 @@
       <c r="G283" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H283" s="7"/>
-    </row>
-    <row r="284" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H283" s="7" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="8">
         <v>2610</v>
       </c>
@@ -13575,7 +13883,7 @@
       </c>
       <c r="H284" s="7"/>
     </row>
-    <row r="285" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="8">
         <v>3854</v>
       </c>
@@ -13595,7 +13903,7 @@
       </c>
       <c r="H285" s="7"/>
     </row>
-    <row r="286" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="8">
         <v>4215</v>
       </c>
@@ -13615,7 +13923,7 @@
       </c>
       <c r="H286" s="7"/>
     </row>
-    <row r="287" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="8">
         <v>3417</v>
       </c>
@@ -13635,7 +13943,7 @@
       </c>
       <c r="H287" s="7"/>
     </row>
-    <row r="288" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="8">
         <v>2652</v>
       </c>
@@ -13655,7 +13963,7 @@
       </c>
       <c r="H288" s="7"/>
     </row>
-    <row r="289" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="8">
         <v>4446</v>
       </c>
@@ -13675,7 +13983,7 @@
       </c>
       <c r="H289" s="7"/>
     </row>
-    <row r="290" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="8">
         <v>4578</v>
       </c>
@@ -13695,7 +14003,7 @@
       </c>
       <c r="H290" s="7"/>
     </row>
-    <row r="291" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="8">
         <v>3994</v>
       </c>
@@ -13715,7 +14023,7 @@
       </c>
       <c r="H291" s="7"/>
     </row>
-    <row r="292" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="8">
         <v>2927</v>
       </c>
@@ -13735,7 +14043,7 @@
       </c>
       <c r="H292" s="7"/>
     </row>
-    <row r="293" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="8">
         <v>4983</v>
       </c>
@@ -13755,7 +14063,7 @@
       </c>
       <c r="H293" s="7"/>
     </row>
-    <row r="294" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="8">
         <v>3995</v>
       </c>
@@ -13775,7 +14083,7 @@
       </c>
       <c r="H294" s="7"/>
     </row>
-    <row r="295" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="8">
         <v>2884</v>
       </c>
@@ -13795,7 +14103,7 @@
       </c>
       <c r="H295" s="7"/>
     </row>
-    <row r="296" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="8">
         <v>3613</v>
       </c>
@@ -13815,7 +14123,7 @@
       </c>
       <c r="H296" s="7"/>
     </row>
-    <row r="297" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="8">
         <v>4928</v>
       </c>
@@ -13835,7 +14143,7 @@
       </c>
       <c r="H297" s="7"/>
     </row>
-    <row r="298" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="8">
         <v>4497</v>
       </c>
@@ -13855,7 +14163,7 @@
       </c>
       <c r="H298" s="7"/>
     </row>
-    <row r="299" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="8">
         <v>4405</v>
       </c>
@@ -13875,7 +14183,7 @@
       </c>
       <c r="H299" s="7"/>
     </row>
-    <row r="300" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="8">
         <v>3376</v>
       </c>
@@ -13895,7 +14203,7 @@
       </c>
       <c r="H300" s="7"/>
     </row>
-    <row r="301" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="8">
         <v>4848</v>
       </c>
@@ -13915,7 +14223,7 @@
       </c>
       <c r="H301" s="7"/>
     </row>
-    <row r="302" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="8">
         <v>3915</v>
       </c>
@@ -13935,7 +14243,7 @@
       </c>
       <c r="H302" s="7"/>
     </row>
-    <row r="303" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="8">
         <v>4967</v>
       </c>
@@ -13955,7 +14263,7 @@
       </c>
       <c r="H303" s="7"/>
     </row>
-    <row r="304" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="8">
         <v>2746</v>
       </c>
@@ -13975,7 +14283,7 @@
       </c>
       <c r="H304" s="7"/>
     </row>
-    <row r="305" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="8">
         <v>4053</v>
       </c>
@@ -13995,7 +14303,7 @@
       </c>
       <c r="H305" s="7"/>
     </row>
-    <row r="306" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="8">
         <v>3865</v>
       </c>
@@ -14015,7 +14323,7 @@
       </c>
       <c r="H306" s="7"/>
     </row>
-    <row r="307" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="8">
         <v>2590</v>
       </c>
@@ -14035,7 +14343,7 @@
       </c>
       <c r="H307" s="7"/>
     </row>
-    <row r="308" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="8">
         <v>3283</v>
       </c>
@@ -14055,7 +14363,7 @@
       </c>
       <c r="H308" s="7"/>
     </row>
-    <row r="309" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="8">
         <v>4224</v>
       </c>
@@ -14075,7 +14383,7 @@
       </c>
       <c r="H309" s="7"/>
     </row>
-    <row r="310" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="8">
         <v>3242</v>
       </c>
@@ -14095,7 +14403,7 @@
       </c>
       <c r="H310" s="7"/>
     </row>
-    <row r="311" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="8">
         <v>4425</v>
       </c>
@@ -14115,7 +14423,7 @@
       </c>
       <c r="H311" s="7"/>
     </row>
-    <row r="312" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="8">
         <v>3128</v>
       </c>
@@ -14135,7 +14443,7 @@
       </c>
       <c r="H312" s="7"/>
     </row>
-    <row r="313" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="8">
         <v>4501</v>
       </c>
@@ -14155,7 +14463,7 @@
       </c>
       <c r="H313" s="7"/>
     </row>
-    <row r="314" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="8">
         <v>2934</v>
       </c>
@@ -14175,7 +14483,7 @@
       </c>
       <c r="H314" s="7"/>
     </row>
-    <row r="315" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="8">
         <v>4175</v>
       </c>
@@ -14195,7 +14503,7 @@
       </c>
       <c r="H315" s="7"/>
     </row>
-    <row r="316" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="8">
         <v>4969</v>
       </c>
@@ -14215,7 +14523,7 @@
       </c>
       <c r="H316" s="7"/>
     </row>
-    <row r="317" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="8">
         <v>3253</v>
       </c>
@@ -14235,7 +14543,7 @@
       </c>
       <c r="H317" s="7"/>
     </row>
-    <row r="318" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="8">
         <v>2526</v>
       </c>
@@ -14255,7 +14563,7 @@
       </c>
       <c r="H318" s="7"/>
     </row>
-    <row r="319" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="8">
         <v>4804</v>
       </c>
@@ -14275,7 +14583,7 @@
       </c>
       <c r="H319" s="7"/>
     </row>
-    <row r="320" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="8">
         <v>2801</v>
       </c>
@@ -14295,7 +14603,7 @@
       </c>
       <c r="H320" s="7"/>
     </row>
-    <row r="321" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="8">
         <v>4971</v>
       </c>
@@ -14315,7 +14623,7 @@
       </c>
       <c r="H321" s="7"/>
     </row>
-    <row r="322" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="8">
         <v>3100</v>
       </c>
@@ -14335,7 +14643,7 @@
       </c>
       <c r="H322" s="7"/>
     </row>
-    <row r="323" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="8">
         <v>4261</v>
       </c>
@@ -14355,7 +14663,7 @@
       </c>
       <c r="H323" s="7"/>
     </row>
-    <row r="324" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="8">
         <v>3208</v>
       </c>
@@ -14375,7 +14683,7 @@
       </c>
       <c r="H324" s="7"/>
     </row>
-    <row r="325" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="8">
         <v>2935</v>
       </c>
@@ -14395,7 +14703,7 @@
       </c>
       <c r="H325" s="7"/>
     </row>
-    <row r="326" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="8">
         <v>3140</v>
       </c>
@@ -14415,7 +14723,7 @@
       </c>
       <c r="H326" s="7"/>
     </row>
-    <row r="327" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="8">
         <v>3184</v>
       </c>
@@ -14435,7 +14743,7 @@
       </c>
       <c r="H327" s="7"/>
     </row>
-    <row r="328" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="8">
         <v>4747</v>
       </c>
@@ -14455,7 +14763,7 @@
       </c>
       <c r="H328" s="7"/>
     </row>
-    <row r="329" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="8">
         <v>2790</v>
       </c>
@@ -14475,7 +14783,7 @@
       </c>
       <c r="H329" s="7"/>
     </row>
-    <row r="330" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="8">
         <v>4167</v>
       </c>
@@ -14495,7 +14803,7 @@
       </c>
       <c r="H330" s="7"/>
     </row>
-    <row r="331" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="8">
         <v>2727</v>
       </c>
@@ -14515,7 +14823,7 @@
       </c>
       <c r="H331" s="7"/>
     </row>
-    <row r="332" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="8">
         <v>4443</v>
       </c>
@@ -14535,7 +14843,7 @@
       </c>
       <c r="H332" s="7"/>
     </row>
-    <row r="333" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="8">
         <v>2615</v>
       </c>
@@ -14555,7 +14863,7 @@
       </c>
       <c r="H333" s="7"/>
     </row>
-    <row r="334" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="8">
         <v>4151</v>
       </c>
@@ -14575,7 +14883,7 @@
       </c>
       <c r="H334" s="7"/>
     </row>
-    <row r="335" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="8">
         <v>2479</v>
       </c>
@@ -14595,7 +14903,7 @@
       </c>
       <c r="H335" s="7"/>
     </row>
-    <row r="336" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="8">
         <v>2502</v>
       </c>
@@ -14615,7 +14923,7 @@
       </c>
       <c r="H336" s="7"/>
     </row>
-    <row r="337" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="8">
         <v>2773</v>
       </c>
@@ -14635,7 +14943,7 @@
       </c>
       <c r="H337" s="7"/>
     </row>
-    <row r="338" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="8">
         <v>4996</v>
       </c>
@@ -14655,7 +14963,7 @@
       </c>
       <c r="H338" s="7"/>
     </row>
-    <row r="339" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="8">
         <v>2665</v>
       </c>
@@ -14675,7 +14983,7 @@
       </c>
       <c r="H339" s="7"/>
     </row>
-    <row r="340" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="8">
         <v>2729</v>
       </c>
@@ -14695,7 +15003,7 @@
       </c>
       <c r="H340" s="7"/>
     </row>
-    <row r="341" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="8">
         <v>3021</v>
       </c>
@@ -14715,7 +15023,7 @@
       </c>
       <c r="H341" s="7"/>
     </row>
-    <row r="342" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="8">
         <v>4019</v>
       </c>
@@ -14735,7 +15043,7 @@
       </c>
       <c r="H342" s="7"/>
     </row>
-    <row r="343" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="8">
         <v>3102</v>
       </c>
@@ -14755,7 +15063,7 @@
       </c>
       <c r="H343" s="7"/>
     </row>
-    <row r="344" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="8">
         <v>3224</v>
       </c>
@@ -14775,7 +15083,7 @@
       </c>
       <c r="H344" s="7"/>
     </row>
-    <row r="345" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="8">
         <v>4459</v>
       </c>
@@ -14795,7 +15103,7 @@
       </c>
       <c r="H345" s="7"/>
     </row>
-    <row r="346" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="8">
         <v>3512</v>
       </c>
@@ -14815,7 +15123,7 @@
       </c>
       <c r="H346" s="7"/>
     </row>
-    <row r="347" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="8">
         <v>4354</v>
       </c>
@@ -14835,7 +15143,7 @@
       </c>
       <c r="H347" s="7"/>
     </row>
-    <row r="348" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="8">
         <v>2699</v>
       </c>
@@ -14855,7 +15163,7 @@
       </c>
       <c r="H348" s="7"/>
     </row>
-    <row r="349" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="8">
         <v>4737</v>
       </c>
@@ -14875,7 +15183,7 @@
       </c>
       <c r="H349" s="7"/>
     </row>
-    <row r="350" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="8">
         <v>3481</v>
       </c>
@@ -14895,7 +15203,7 @@
       </c>
       <c r="H350" s="7"/>
     </row>
-    <row r="351" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="8">
         <v>4390</v>
       </c>
@@ -14915,7 +15223,7 @@
       </c>
       <c r="H351" s="7"/>
     </row>
-    <row r="352" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="8">
         <v>4339</v>
       </c>
@@ -14935,7 +15243,7 @@
       </c>
       <c r="H352" s="7"/>
     </row>
-    <row r="353" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="8">
         <v>2886</v>
       </c>
@@ -14955,7 +15263,7 @@
       </c>
       <c r="H353" s="7"/>
     </row>
-    <row r="354" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="8">
         <v>4317</v>
       </c>
@@ -14975,7 +15283,7 @@
       </c>
       <c r="H354" s="7"/>
     </row>
-    <row r="355" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="8">
         <v>4052</v>
       </c>
@@ -14995,7 +15303,7 @@
       </c>
       <c r="H355" s="7"/>
     </row>
-    <row r="356" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="8">
         <v>4765</v>
       </c>
@@ -15015,7 +15323,7 @@
       </c>
       <c r="H356" s="7"/>
     </row>
-    <row r="357" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="8">
         <v>3133</v>
       </c>
@@ -15035,7 +15343,7 @@
       </c>
       <c r="H357" s="7"/>
     </row>
-    <row r="358" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="8">
         <v>3303</v>
       </c>
@@ -15055,7 +15363,7 @@
       </c>
       <c r="H358" s="7"/>
     </row>
-    <row r="359" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="8">
         <v>3009</v>
       </c>
@@ -15075,7 +15383,7 @@
       </c>
       <c r="H359" s="7"/>
     </row>
-    <row r="360" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="8">
         <v>3002</v>
       </c>
@@ -15095,7 +15403,7 @@
       </c>
       <c r="H360" s="7"/>
     </row>
-    <row r="361" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="8">
         <v>2973</v>
       </c>
@@ -15115,7 +15423,7 @@
       </c>
       <c r="H361" s="7"/>
     </row>
-    <row r="362" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="8">
         <v>3468</v>
       </c>
@@ -15135,7 +15443,7 @@
       </c>
       <c r="H362" s="7"/>
     </row>
-    <row r="363" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="8">
         <v>2837</v>
       </c>
@@ -15155,7 +15463,7 @@
       </c>
       <c r="H363" s="7"/>
     </row>
-    <row r="364" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="8">
         <v>4258</v>
       </c>
@@ -15175,7 +15483,7 @@
       </c>
       <c r="H364" s="7"/>
     </row>
-    <row r="365" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="8">
         <v>4923</v>
       </c>
@@ -15195,7 +15503,7 @@
       </c>
       <c r="H365" s="7"/>
     </row>
-    <row r="366" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="8">
         <v>4927</v>
       </c>
@@ -15215,7 +15523,7 @@
       </c>
       <c r="H366" s="7"/>
     </row>
-    <row r="367" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="8">
         <v>4645</v>
       </c>
@@ -15235,7 +15543,7 @@
       </c>
       <c r="H367" s="7"/>
     </row>
-    <row r="368" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="8">
         <v>3532</v>
       </c>
@@ -15255,7 +15563,7 @@
       </c>
       <c r="H368" s="7"/>
     </row>
-    <row r="369" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="8">
         <v>4435</v>
       </c>
@@ -15275,7 +15583,7 @@
       </c>
       <c r="H369" s="7"/>
     </row>
-    <row r="370" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="8">
         <v>2558</v>
       </c>
@@ -15295,7 +15603,7 @@
       </c>
       <c r="H370" s="7"/>
     </row>
-    <row r="371" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="8">
         <v>3331</v>
       </c>
@@ -15315,7 +15623,7 @@
       </c>
       <c r="H371" s="7"/>
     </row>
-    <row r="372" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="8">
         <v>4644</v>
       </c>
@@ -15335,7 +15643,7 @@
       </c>
       <c r="H372" s="7"/>
     </row>
-    <row r="373" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="8">
         <v>2481</v>
       </c>
@@ -15355,7 +15663,7 @@
       </c>
       <c r="H373" s="7"/>
     </row>
-    <row r="374" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="8">
         <v>4203</v>
       </c>
@@ -15375,7 +15683,7 @@
       </c>
       <c r="H374" s="7"/>
     </row>
-    <row r="375" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="8">
         <v>2578</v>
       </c>
@@ -15395,7 +15703,7 @@
       </c>
       <c r="H375" s="7"/>
     </row>
-    <row r="376" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="8">
         <v>4223</v>
       </c>
@@ -15415,7 +15723,7 @@
       </c>
       <c r="H376" s="7"/>
     </row>
-    <row r="377" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="8">
         <v>4081</v>
       </c>
@@ -15435,7 +15743,7 @@
       </c>
       <c r="H377" s="7"/>
     </row>
-    <row r="378" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="8">
         <v>3033</v>
       </c>
@@ -15455,7 +15763,7 @@
       </c>
       <c r="H378" s="7"/>
     </row>
-    <row r="379" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="8">
         <v>2807</v>
       </c>
@@ -15475,7 +15783,7 @@
       </c>
       <c r="H379" s="7"/>
     </row>
-    <row r="380" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="8">
         <v>4491</v>
       </c>
@@ -15495,7 +15803,7 @@
       </c>
       <c r="H380" s="7"/>
     </row>
-    <row r="381" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="8">
         <v>4939</v>
       </c>
@@ -15515,7 +15823,7 @@
       </c>
       <c r="H381" s="7"/>
     </row>
-    <row r="382" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="8">
         <v>3116</v>
       </c>
@@ -15535,7 +15843,7 @@
       </c>
       <c r="H382" s="7"/>
     </row>
-    <row r="383" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="8">
         <v>3108</v>
       </c>
@@ -15555,7 +15863,7 @@
       </c>
       <c r="H383" s="7"/>
     </row>
-    <row r="384" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="8">
         <v>2698</v>
       </c>
@@ -15575,7 +15883,7 @@
       </c>
       <c r="H384" s="7"/>
     </row>
-    <row r="385" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="8">
         <v>2816</v>
       </c>
@@ -15595,7 +15903,7 @@
       </c>
       <c r="H385" s="7"/>
     </row>
-    <row r="386" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="8">
         <v>3926</v>
       </c>
@@ -15615,7 +15923,7 @@
       </c>
       <c r="H386" s="7"/>
     </row>
-    <row r="387" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="8">
         <v>3863</v>
       </c>
@@ -15635,7 +15943,7 @@
       </c>
       <c r="H387" s="7"/>
     </row>
-    <row r="388" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="8">
         <v>4884</v>
       </c>
@@ -15655,7 +15963,7 @@
       </c>
       <c r="H388" s="7"/>
     </row>
-    <row r="389" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="8">
         <v>4304</v>
       </c>
@@ -15675,7 +15983,7 @@
       </c>
       <c r="H389" s="7"/>
     </row>
-    <row r="390" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="8">
         <v>3277</v>
       </c>
@@ -15695,7 +16003,7 @@
       </c>
       <c r="H390" s="7"/>
     </row>
-    <row r="391" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="8">
         <v>4700</v>
       </c>
@@ -15715,7 +16023,7 @@
       </c>
       <c r="H391" s="7"/>
     </row>
-    <row r="392" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="8">
         <v>4046</v>
       </c>
@@ -15735,7 +16043,7 @@
       </c>
       <c r="H392" s="7"/>
     </row>
-    <row r="393" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="8">
         <v>2491</v>
       </c>
@@ -15755,7 +16063,7 @@
       </c>
       <c r="H393" s="7"/>
     </row>
-    <row r="394" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="8">
         <v>3479</v>
       </c>
@@ -15775,7 +16083,7 @@
       </c>
       <c r="H394" s="7"/>
     </row>
-    <row r="395" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="8">
         <v>3601</v>
       </c>
@@ -15795,7 +16103,7 @@
       </c>
       <c r="H395" s="7"/>
     </row>
-    <row r="396" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="8">
         <v>3410</v>
       </c>
@@ -15815,7 +16123,7 @@
       </c>
       <c r="H396" s="7"/>
     </row>
-    <row r="397" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="8">
         <v>2497</v>
       </c>
@@ -15835,7 +16143,7 @@
       </c>
       <c r="H397" s="7"/>
     </row>
-    <row r="398" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="8">
         <v>3534</v>
       </c>
@@ -15855,7 +16163,7 @@
       </c>
       <c r="H398" s="7"/>
     </row>
-    <row r="399" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="8">
         <v>4075</v>
       </c>
@@ -15875,7 +16183,7 @@
       </c>
       <c r="H399" s="7"/>
     </row>
-    <row r="400" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="8">
         <v>2768</v>
       </c>
@@ -15895,7 +16203,7 @@
       </c>
       <c r="H400" s="7"/>
     </row>
-    <row r="401" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="8">
         <v>2498</v>
       </c>
@@ -15915,7 +16223,7 @@
       </c>
       <c r="H401" s="7"/>
     </row>
-    <row r="402" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="8">
         <v>4952</v>
       </c>
@@ -15935,7 +16243,7 @@
       </c>
       <c r="H402" s="7"/>
     </row>
-    <row r="403" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="8">
         <v>2532</v>
       </c>
@@ -15955,7 +16263,7 @@
       </c>
       <c r="H403" s="7"/>
     </row>
-    <row r="404" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="8">
         <v>2527</v>
       </c>
@@ -15975,7 +16283,7 @@
       </c>
       <c r="H404" s="7"/>
     </row>
-    <row r="405" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="8">
         <v>3241</v>
       </c>
@@ -15995,7 +16303,7 @@
       </c>
       <c r="H405" s="7"/>
     </row>
-    <row r="406" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="8">
         <v>4469</v>
       </c>
@@ -16015,7 +16323,7 @@
       </c>
       <c r="H406" s="7"/>
     </row>
-    <row r="407" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="8">
         <v>3498</v>
       </c>
@@ -16035,7 +16343,7 @@
       </c>
       <c r="H407" s="7"/>
     </row>
-    <row r="408" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="8">
         <v>4494</v>
       </c>
@@ -16055,7 +16363,7 @@
       </c>
       <c r="H408" s="7"/>
     </row>
-    <row r="409" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="8">
         <v>4409</v>
       </c>
@@ -16075,7 +16383,7 @@
       </c>
       <c r="H409" s="7"/>
     </row>
-    <row r="410" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="8">
         <v>3220</v>
       </c>
@@ -16095,7 +16403,7 @@
       </c>
       <c r="H410" s="7"/>
     </row>
-    <row r="411" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="8">
         <v>3559</v>
       </c>
@@ -16115,7 +16423,7 @@
       </c>
       <c r="H411" s="7"/>
     </row>
-    <row r="412" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="8">
         <v>2625</v>
       </c>
@@ -16135,7 +16443,7 @@
       </c>
       <c r="H412" s="7"/>
     </row>
-    <row r="413" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="8">
         <v>3447</v>
       </c>
@@ -16155,7 +16463,7 @@
       </c>
       <c r="H413" s="7"/>
     </row>
-    <row r="414" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="8">
         <v>4341</v>
       </c>
@@ -16175,7 +16483,7 @@
       </c>
       <c r="H414" s="7"/>
     </row>
-    <row r="415" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="8">
         <v>3284</v>
       </c>
@@ -16195,7 +16503,7 @@
       </c>
       <c r="H415" s="7"/>
     </row>
-    <row r="416" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="8">
         <v>4647</v>
       </c>
@@ -16215,7 +16523,7 @@
       </c>
       <c r="H416" s="7"/>
     </row>
-    <row r="417" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="8">
         <v>2730</v>
       </c>
@@ -16235,7 +16543,7 @@
       </c>
       <c r="H417" s="7"/>
     </row>
-    <row r="418" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="8">
         <v>4847</v>
       </c>
@@ -16255,7 +16563,7 @@
       </c>
       <c r="H418" s="7"/>
     </row>
-    <row r="419" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="8">
         <v>2863</v>
       </c>
@@ -16275,7 +16583,7 @@
       </c>
       <c r="H419" s="7"/>
     </row>
-    <row r="420" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="8">
         <v>2979</v>
       </c>
@@ -16295,7 +16603,7 @@
       </c>
       <c r="H420" s="7"/>
     </row>
-    <row r="421" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="8">
         <v>2988</v>
       </c>
@@ -16315,7 +16623,7 @@
       </c>
       <c r="H421" s="7"/>
     </row>
-    <row r="422" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="8">
         <v>4085</v>
       </c>
@@ -16335,7 +16643,7 @@
       </c>
       <c r="H422" s="7"/>
     </row>
-    <row r="423" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="8">
         <v>2955</v>
       </c>
@@ -16355,7 +16663,7 @@
       </c>
       <c r="H423" s="7"/>
     </row>
-    <row r="424" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="8">
         <v>4107</v>
       </c>
@@ -16375,7 +16683,7 @@
       </c>
       <c r="H424" s="7"/>
     </row>
-    <row r="425" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="8">
         <v>3318</v>
       </c>
@@ -16395,7 +16703,7 @@
       </c>
       <c r="H425" s="7"/>
     </row>
-    <row r="426" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="8">
         <v>4095</v>
       </c>
@@ -16415,7 +16723,7 @@
       </c>
       <c r="H426" s="7"/>
     </row>
-    <row r="427" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="8">
         <v>2835</v>
       </c>
@@ -16435,7 +16743,7 @@
       </c>
       <c r="H427" s="7"/>
     </row>
-    <row r="428" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="8">
         <v>3446</v>
       </c>
@@ -16455,7 +16763,7 @@
       </c>
       <c r="H428" s="7"/>
     </row>
-    <row r="429" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="8">
         <v>4948</v>
       </c>
@@ -16475,7 +16783,7 @@
       </c>
       <c r="H429" s="7"/>
     </row>
-    <row r="430" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="8">
         <v>4636</v>
       </c>
@@ -16495,7 +16803,7 @@
       </c>
       <c r="H430" s="7"/>
     </row>
-    <row r="431" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="8">
         <v>3069</v>
       </c>
@@ -16515,7 +16823,7 @@
       </c>
       <c r="H431" s="7"/>
     </row>
-    <row r="432" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="8">
         <v>2875</v>
       </c>
@@ -16535,7 +16843,7 @@
       </c>
       <c r="H432" s="7"/>
     </row>
-    <row r="433" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="8">
         <v>4517</v>
       </c>
@@ -16555,7 +16863,7 @@
       </c>
       <c r="H433" s="7"/>
     </row>
-    <row r="434" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="8">
         <v>3596</v>
       </c>
@@ -16575,7 +16883,7 @@
       </c>
       <c r="H434" s="7"/>
     </row>
-    <row r="435" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="8">
         <v>3982</v>
       </c>
@@ -16595,7 +16903,7 @@
       </c>
       <c r="H435" s="7"/>
     </row>
-    <row r="436" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="8">
         <v>4901</v>
       </c>
@@ -16615,7 +16923,7 @@
       </c>
       <c r="H436" s="7"/>
     </row>
-    <row r="437" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="8">
         <v>3238</v>
       </c>
@@ -16635,7 +16943,7 @@
       </c>
       <c r="H437" s="7"/>
     </row>
-    <row r="438" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="8">
         <v>4220</v>
       </c>
@@ -16655,7 +16963,7 @@
       </c>
       <c r="H438" s="7"/>
     </row>
-    <row r="439" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="8">
         <v>4468</v>
       </c>
@@ -16675,7 +16983,7 @@
       </c>
       <c r="H439" s="7"/>
     </row>
-    <row r="440" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="8">
         <v>3043</v>
       </c>
@@ -16695,7 +17003,7 @@
       </c>
       <c r="H440" s="7"/>
     </row>
-    <row r="441" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="8">
         <v>3883</v>
       </c>
@@ -16715,7 +17023,7 @@
       </c>
       <c r="H441" s="7"/>
     </row>
-    <row r="442" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="8">
         <v>4330</v>
       </c>
@@ -16735,7 +17043,7 @@
       </c>
       <c r="H442" s="7"/>
     </row>
-    <row r="443" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="8">
         <v>3071</v>
       </c>
@@ -16755,7 +17063,7 @@
       </c>
       <c r="H443" s="7"/>
     </row>
-    <row r="444" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="8">
         <v>3106</v>
       </c>
@@ -16775,7 +17083,7 @@
       </c>
       <c r="H444" s="7"/>
     </row>
-    <row r="445" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="8">
         <v>4726</v>
       </c>
@@ -16795,7 +17103,7 @@
       </c>
       <c r="H445" s="7"/>
     </row>
-    <row r="446" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="8">
         <v>4738</v>
       </c>
@@ -16815,7 +17123,7 @@
       </c>
       <c r="H446" s="7"/>
     </row>
-    <row r="447" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="8">
         <v>4418</v>
       </c>
@@ -16835,7 +17143,7 @@
       </c>
       <c r="H447" s="7"/>
     </row>
-    <row r="448" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="8">
         <v>3434</v>
       </c>
@@ -16855,7 +17163,7 @@
       </c>
       <c r="H448" s="7"/>
     </row>
-    <row r="449" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="8">
         <v>2969</v>
       </c>
@@ -16875,7 +17183,7 @@
       </c>
       <c r="H449" s="7"/>
     </row>
-    <row r="450" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="8">
         <v>4283</v>
       </c>
@@ -16895,7 +17203,7 @@
       </c>
       <c r="H450" s="7"/>
     </row>
-    <row r="451" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="8">
         <v>4393</v>
       </c>
@@ -16915,7 +17223,7 @@
       </c>
       <c r="H451" s="7"/>
     </row>
-    <row r="452" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="8">
         <v>3000</v>
       </c>
@@ -16935,7 +17243,7 @@
       </c>
       <c r="H452" s="7"/>
     </row>
-    <row r="453" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="8">
         <v>4264</v>
       </c>
@@ -16955,7 +17263,7 @@
       </c>
       <c r="H453" s="7"/>
     </row>
-    <row r="454" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="8">
         <v>3775</v>
       </c>
@@ -16975,7 +17283,7 @@
       </c>
       <c r="H454" s="7"/>
     </row>
-    <row r="455" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="8">
         <v>4830</v>
       </c>
@@ -16995,7 +17303,7 @@
       </c>
       <c r="H455" s="7"/>
     </row>
-    <row r="456" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="8">
         <v>4798</v>
       </c>
@@ -17015,7 +17323,7 @@
       </c>
       <c r="H456" s="7"/>
     </row>
-    <row r="457" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="8">
         <v>4932</v>
       </c>
@@ -17035,7 +17343,7 @@
       </c>
       <c r="H457" s="7"/>
     </row>
-    <row r="458" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="8">
         <v>4697</v>
       </c>
@@ -17055,7 +17363,7 @@
       </c>
       <c r="H458" s="7"/>
     </row>
-    <row r="459" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="8">
         <v>4048</v>
       </c>
@@ -17075,7 +17383,7 @@
       </c>
       <c r="H459" s="7"/>
     </row>
-    <row r="460" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="8">
         <v>3614</v>
       </c>
@@ -17095,7 +17403,7 @@
       </c>
       <c r="H460" s="7"/>
     </row>
-    <row r="461" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="8">
         <v>2780</v>
       </c>
@@ -17115,7 +17423,7 @@
       </c>
       <c r="H461" s="7"/>
     </row>
-    <row r="462" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="8">
         <v>3428</v>
       </c>
@@ -17135,7 +17443,7 @@
       </c>
       <c r="H462" s="7"/>
     </row>
-    <row r="463" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="8">
         <v>4821</v>
       </c>
@@ -17155,7 +17463,7 @@
       </c>
       <c r="H463" s="7"/>
     </row>
-    <row r="464" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="8">
         <v>3219</v>
       </c>
@@ -17175,7 +17483,7 @@
       </c>
       <c r="H464" s="7"/>
     </row>
-    <row r="465" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="8">
         <v>3351</v>
       </c>
@@ -17195,7 +17503,7 @@
       </c>
       <c r="H465" s="7"/>
     </row>
-    <row r="466" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="8">
         <v>4510</v>
       </c>
@@ -17215,7 +17523,7 @@
       </c>
       <c r="H466" s="7"/>
     </row>
-    <row r="467" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="8">
         <v>4662</v>
       </c>
@@ -17235,7 +17543,7 @@
       </c>
       <c r="H467" s="7"/>
     </row>
-    <row r="468" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="8">
         <v>2561</v>
       </c>
@@ -17255,7 +17563,7 @@
       </c>
       <c r="H468" s="7"/>
     </row>
-    <row r="469" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="8">
         <v>3049</v>
       </c>
@@ -17275,7 +17583,7 @@
       </c>
       <c r="H469" s="7"/>
     </row>
-    <row r="470" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="8">
         <v>4802</v>
       </c>
@@ -17295,7 +17603,7 @@
       </c>
       <c r="H470" s="7"/>
     </row>
-    <row r="471" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="8">
         <v>2546</v>
       </c>
@@ -17315,7 +17623,7 @@
       </c>
       <c r="H471" s="7"/>
     </row>
-    <row r="472" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="8">
         <v>4211</v>
       </c>
@@ -17335,7 +17643,7 @@
       </c>
       <c r="H472" s="7"/>
     </row>
-    <row r="473" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="8">
         <v>4913</v>
       </c>
@@ -17355,7 +17663,7 @@
       </c>
       <c r="H473" s="7"/>
     </row>
-    <row r="474" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="8">
         <v>3502</v>
       </c>
@@ -17375,7 +17683,7 @@
       </c>
       <c r="H474" s="7"/>
     </row>
-    <row r="475" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="8">
         <v>2857</v>
       </c>
@@ -17395,7 +17703,7 @@
       </c>
       <c r="H475" s="7"/>
     </row>
-    <row r="476" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="8">
         <v>2555</v>
       </c>
@@ -17415,7 +17723,7 @@
       </c>
       <c r="H476" s="7"/>
     </row>
-    <row r="477" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="8">
         <v>4063</v>
       </c>
@@ -17435,7 +17743,7 @@
       </c>
       <c r="H477" s="7"/>
     </row>
-    <row r="478" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="8">
         <v>2944</v>
       </c>
@@ -17455,7 +17763,7 @@
       </c>
       <c r="H478" s="7"/>
     </row>
-    <row r="479" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="8">
         <v>4349</v>
       </c>
@@ -17475,7 +17783,7 @@
       </c>
       <c r="H479" s="7"/>
     </row>
-    <row r="480" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="8">
         <v>4119</v>
       </c>
@@ -17495,7 +17803,7 @@
       </c>
       <c r="H480" s="7"/>
     </row>
-    <row r="481" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="8">
         <v>4664</v>
       </c>
@@ -17515,7 +17823,7 @@
       </c>
       <c r="H481" s="7"/>
     </row>
-    <row r="482" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="8">
         <v>4855</v>
       </c>
@@ -17535,7 +17843,7 @@
       </c>
       <c r="H482" s="7"/>
     </row>
-    <row r="483" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="8">
         <v>4625</v>
       </c>
@@ -17555,7 +17863,7 @@
       </c>
       <c r="H483" s="7"/>
     </row>
-    <row r="484" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="8">
         <v>3120</v>
       </c>
@@ -17575,7 +17883,7 @@
       </c>
       <c r="H484" s="7"/>
     </row>
-    <row r="485" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="8">
         <v>2637</v>
       </c>
@@ -17595,7 +17903,7 @@
       </c>
       <c r="H485" s="7"/>
     </row>
-    <row r="486" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="8">
         <v>3292</v>
       </c>
@@ -17615,7 +17923,7 @@
       </c>
       <c r="H486" s="7"/>
     </row>
-    <row r="487" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="8">
         <v>4838</v>
       </c>
@@ -17635,7 +17943,7 @@
       </c>
       <c r="H487" s="7"/>
     </row>
-    <row r="488" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="8">
         <v>4199</v>
       </c>
@@ -17655,7 +17963,7 @@
       </c>
       <c r="H488" s="7"/>
     </row>
-    <row r="489" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="8">
         <v>3570</v>
       </c>
@@ -17675,7 +17983,7 @@
       </c>
       <c r="H489" s="7"/>
     </row>
-    <row r="490" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="8">
         <v>4841</v>
       </c>
@@ -17695,7 +18003,7 @@
       </c>
       <c r="H490" s="7"/>
     </row>
-    <row r="491" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="8">
         <v>2536</v>
       </c>
@@ -17715,7 +18023,7 @@
       </c>
       <c r="H491" s="7"/>
     </row>
-    <row r="492" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="8">
         <v>4077</v>
       </c>
@@ -17735,7 +18043,7 @@
       </c>
       <c r="H492" s="7"/>
     </row>
-    <row r="493" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="8">
         <v>4538</v>
       </c>
@@ -17755,7 +18063,7 @@
       </c>
       <c r="H493" s="7"/>
     </row>
-    <row r="494" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="8">
         <v>4840</v>
       </c>
@@ -17775,7 +18083,7 @@
       </c>
       <c r="H494" s="7"/>
     </row>
-    <row r="495" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="8">
         <v>4266</v>
       </c>
@@ -17795,7 +18103,7 @@
       </c>
       <c r="H495" s="7"/>
     </row>
-    <row r="496" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="8">
         <v>3553</v>
       </c>
@@ -17815,7 +18123,7 @@
       </c>
       <c r="H496" s="7"/>
     </row>
-    <row r="497" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="8">
         <v>2701</v>
       </c>
@@ -17835,7 +18143,7 @@
       </c>
       <c r="H497" s="7"/>
     </row>
-    <row r="498" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="8">
         <v>3200</v>
       </c>
@@ -17855,7 +18163,7 @@
       </c>
       <c r="H498" s="7"/>
     </row>
-    <row r="499" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="8">
         <v>4832</v>
       </c>
@@ -17875,7 +18183,7 @@
       </c>
       <c r="H499" s="7"/>
     </row>
-    <row r="500" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="8">
         <v>2642</v>
       </c>
@@ -17895,7 +18203,7 @@
       </c>
       <c r="H500" s="7"/>
     </row>
-    <row r="501" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="8">
         <v>2691</v>
       </c>
@@ -17915,7 +18223,7 @@
       </c>
       <c r="H501" s="7"/>
     </row>
-    <row r="502" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="8">
         <v>4767</v>
       </c>
@@ -17935,7 +18243,7 @@
       </c>
       <c r="H502" s="7"/>
     </row>
-    <row r="503" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="8">
         <v>2514</v>
       </c>
@@ -17955,7 +18263,7 @@
       </c>
       <c r="H503" s="7"/>
     </row>
-    <row r="504" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:8" ht="72.5" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="13">
         <v>3872</v>
       </c>
@@ -17977,6 +18285,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="iconSet" priority="1">
+      <iconSet>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -72239,9 +72556,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72377,25 +72697,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F57E4FE-A7AB-4FE1-A94E-2FBD2181B04F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4F945A4-7958-4E6A-B368-14D8F818436E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -72419,9 +72729,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4F945A4-7958-4E6A-B368-14D8F818436E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F57E4FE-A7AB-4FE1-A94E-2FBD2181B04F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/fimo_eval_v0.9.xlsx
+++ b/fimo_eval_v0.9.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\Documents\GitHub\QAABSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD92C0C-F8FA-43D2-A6B6-CE53576BE181}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6EC09E-D28F-4C53-8896-8196BE4572ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10070" yWindow="2850" windowWidth="18200" windowHeight="7810" xr2:uid="{8FAF0841-0AAD-4EA4-8816-B4D2EB506A26}"/>
+    <workbookView xWindow="5660" yWindow="990" windowWidth="18200" windowHeight="7810" xr2:uid="{8FAF0841-0AAD-4EA4-8816-B4D2EB506A26}"/>
   </bookViews>
   <sheets>
     <sheet name="main_filtered" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17322" uniqueCount="2025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17341" uniqueCount="2049">
   <si>
     <t>Index</t>
   </si>
@@ -6558,6 +6558,82 @@
   <si>
     <t>• bonus to have the glow in the dark one
 • loved this stuff for years</t>
+  </si>
+  <si>
+    <t>product, delivery</t>
+  </si>
+  <si>
+    <t>• Great product and quick delivery</t>
+  </si>
+  <si>
+    <t>quality, dough, rendering</t>
+  </si>
+  <si>
+    <t>product, quality, quantity</t>
+  </si>
+  <si>
+    <t>• correct quantity
+• perfect quality</t>
+  </si>
+  <si>
+    <t>squares</t>
+  </si>
+  <si>
+    <t>shapes</t>
+  </si>
+  <si>
+    <t>shipping times, color</t>
+  </si>
+  <si>
+    <t>• Shipping times were great
+• its is a beautiful color</t>
+  </si>
+  <si>
+    <t>• very small squares</t>
+  </si>
+  <si>
+    <t>• A bit expensive, compared to the price of other Fimo pastes</t>
+  </si>
+  <si>
+    <t>• happy with the purchase</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>value, handle, oderless</t>
+  </si>
+  <si>
+    <t>• Enough colors
+• The consistency is also very good
+• colors remained very nice even after baking</t>
+  </si>
+  <si>
+    <t>colors, consistency, colors</t>
+  </si>
+  <si>
+    <t>• colors are great</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>effects, gold</t>
+  </si>
+  <si>
+    <t>• expected some metallic effects like gold can have but it is nothing more than a Fimo paste with glitter</t>
+  </si>
+  <si>
+    <t>colour, use</t>
+  </si>
+  <si>
+    <t>price, quality</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dough blocks, </t>
   </si>
 </sst>
 </file>
@@ -7308,8 +7384,8 @@
   <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D186" sqref="D186"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11707,7 +11783,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="193" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="8">
         <v>2080</v>
       </c>
@@ -11718,10 +11794,14 @@
         <v>793</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
+        <v>2026</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F186" s="7" t="s">
+        <v>1883</v>
+      </c>
       <c r="G186" s="7" t="s">
         <v>795</v>
       </c>
@@ -11729,7 +11809,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" ht="161" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="8">
         <v>1581</v>
       </c>
@@ -11742,7 +11822,9 @@
       <c r="D187" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="E187" s="7"/>
+      <c r="E187" s="7" t="s">
+        <v>2027</v>
+      </c>
       <c r="F187" s="7"/>
       <c r="G187" s="7" t="s">
         <v>21</v>
@@ -11751,7 +11833,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" ht="115" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="8">
         <v>582</v>
       </c>
@@ -11762,9 +11844,11 @@
         <v>802</v>
       </c>
       <c r="D188" s="7" t="s">
-        <v>803</v>
-      </c>
-      <c r="E188" s="7"/>
+        <v>2029</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>2028</v>
+      </c>
       <c r="F188" s="7"/>
       <c r="G188" s="7" t="s">
         <v>21</v>
@@ -11773,7 +11857,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="135.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="8">
         <v>1051</v>
       </c>
@@ -11784,9 +11868,11 @@
         <v>804</v>
       </c>
       <c r="D189" s="7" t="s">
-        <v>806</v>
-      </c>
-      <c r="E189" s="7"/>
+        <v>2033</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>2032</v>
+      </c>
       <c r="F189" s="7"/>
       <c r="G189" s="7" t="s">
         <v>21</v>
@@ -11809,15 +11895,17 @@
         <v>21</v>
       </c>
       <c r="E190" s="7"/>
-      <c r="F190" s="7"/>
+      <c r="F190" s="7" t="s">
+        <v>2030</v>
+      </c>
       <c r="G190" s="7" t="s">
-        <v>810</v>
+        <v>2034</v>
       </c>
       <c r="H190" s="7" t="s">
         <v>1700</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="8">
         <v>2287</v>
       </c>
@@ -11830,16 +11918,16 @@
       <c r="D191" s="7" t="s">
         <v>814</v>
       </c>
-      <c r="E191" s="7"/>
+      <c r="E191" s="7" t="s">
+        <v>2031</v>
+      </c>
       <c r="F191" s="7"/>
-      <c r="G191" s="7" t="s">
-        <v>815</v>
-      </c>
+      <c r="G191" s="7"/>
       <c r="H191" s="7" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" ht="121.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="8">
         <v>882</v>
       </c>
@@ -11850,12 +11938,16 @@
         <v>817</v>
       </c>
       <c r="D192" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7"/>
+        <v>2036</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F192" s="7" t="s">
+        <v>1883</v>
+      </c>
       <c r="G192" s="7" t="s">
-        <v>820</v>
+        <v>2035</v>
       </c>
       <c r="H192" s="7" t="s">
         <v>1702</v>
@@ -11872,9 +11964,11 @@
         <v>822</v>
       </c>
       <c r="D193" s="7" t="s">
-        <v>824</v>
-      </c>
-      <c r="E193" s="7"/>
+        <v>521</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>1850</v>
+      </c>
       <c r="F193" s="7"/>
       <c r="G193" s="7" t="s">
         <v>21</v>
@@ -11883,7 +11977,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="8">
         <v>2228</v>
       </c>
@@ -11896,7 +11990,9 @@
       <c r="D194" s="7" t="s">
         <v>828</v>
       </c>
-      <c r="E194" s="7"/>
+      <c r="E194" s="7" t="s">
+        <v>2038</v>
+      </c>
       <c r="F194" s="7"/>
       <c r="G194" s="7" t="s">
         <v>21</v>
@@ -11905,7 +12001,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="8">
         <v>1872</v>
       </c>
@@ -11916,9 +12012,11 @@
         <v>830</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>832</v>
-      </c>
-      <c r="E195" s="7"/>
+        <v>2039</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>2040</v>
+      </c>
       <c r="F195" s="7"/>
       <c r="G195" s="7" t="s">
         <v>21</v>
@@ -11927,7 +12025,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" ht="171" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="8">
         <v>1695</v>
       </c>
@@ -11938,9 +12036,11 @@
         <v>834</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>836</v>
-      </c>
-      <c r="E196" s="7"/>
+        <v>2041</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>1815</v>
+      </c>
       <c r="F196" s="7"/>
       <c r="G196" s="7" t="s">
         <v>21</v>
@@ -11949,7 +12049,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="139" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="8">
         <v>666</v>
       </c>
@@ -11960,18 +12060,18 @@
         <v>839</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>841</v>
-      </c>
-      <c r="E197" s="7"/>
+        <v>840</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>1850</v>
+      </c>
       <c r="F197" s="7"/>
-      <c r="G197" s="7" t="s">
-        <v>842</v>
-      </c>
+      <c r="G197" s="7"/>
       <c r="H197" s="7" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="140.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="8">
         <v>916</v>
       </c>
@@ -11984,7 +12084,9 @@
       <c r="D198" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="E198" s="7"/>
+      <c r="E198" s="7" t="s">
+        <v>2042</v>
+      </c>
       <c r="F198" s="7"/>
       <c r="G198" s="7" t="s">
         <v>21</v>
@@ -12007,9 +12109,11 @@
         <v>21</v>
       </c>
       <c r="E199" s="7"/>
-      <c r="F199" s="7"/>
+      <c r="F199" s="7" t="s">
+        <v>2043</v>
+      </c>
       <c r="G199" s="7" t="s">
-        <v>848</v>
+        <v>2044</v>
       </c>
       <c r="H199" s="7" t="s">
         <v>1708</v>
@@ -12028,7 +12132,9 @@
       <c r="D200" s="7" t="s">
         <v>851</v>
       </c>
-      <c r="E200" s="7"/>
+      <c r="E200" s="7" t="s">
+        <v>2045</v>
+      </c>
       <c r="F200" s="7"/>
       <c r="G200" s="7" t="s">
         <v>852</v>
@@ -12050,7 +12156,9 @@
       <c r="D201" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="E201" s="7"/>
+      <c r="E201" s="7" t="s">
+        <v>2046</v>
+      </c>
       <c r="F201" s="7"/>
       <c r="G201" s="7" t="s">
         <v>21</v>
@@ -12070,9 +12178,11 @@
         <v>857</v>
       </c>
       <c r="D202" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E202" s="7"/>
+        <v>859</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>2047</v>
+      </c>
       <c r="F202" s="7"/>
       <c r="G202" s="7" t="s">
         <v>21</v>
@@ -12081,7 +12191,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="72.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:8" ht="255" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="18">
         <v>344</v>
       </c>
@@ -12094,8 +12204,12 @@
       <c r="D203" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7"/>
+      <c r="E203" s="7" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F203" s="7" t="s">
+        <v>2048</v>
+      </c>
       <c r="G203" s="7" t="s">
         <v>863</v>
       </c>
